--- a/code/output.xlsx
+++ b/code/output.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Col1</t>
   </si>
@@ -39,88 +39,19 @@
     <t>Josh</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>44910</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
     <t>Merti</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>44911</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Viridian</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44912</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6.1428571428571432</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>44913</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Pepe</t>
   </si>
   <si>
     <t>Nadia</t>
-  </si>
-  <si>
-    <t>44914</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>44915</t>
-  </si>
-  <si>
-    <t>0.04</t>
   </si>
 </sst>
 </file>
@@ -178,7 +109,7 @@
     <col min="3" max="3" width="6.42578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="19.42578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.42578125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="9.42578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -209,135 +140,135 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <f>B2/E2</f>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44911</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <f>B3/E3</f>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44912</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <f/>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>48</v>
+      </c>
+      <c r="C5" t="n">
+        <v>44913</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f/>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44914</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f/>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>44915</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f/>
       </c>
       <c r="G7" t="s">
         <v>7</v>

--- a/code/output.xlsx
+++ b/code/output.xlsx
@@ -15,10 +15,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
-    <t>Out Col 7</t>
+    <t>Output7</t>
   </si>
   <si>
-    <t>Out Col 1</t>
+    <t>Output1</t>
   </si>
   <si>
     <t>John</t>
@@ -89,8 +89,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.42578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.42578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/code/output.xlsx
+++ b/code/output.xlsx
@@ -13,12 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Output7</t>
   </si>
   <si>
     <t>Output1</t>
+  </si>
+  <si>
+    <t>Output2</t>
   </si>
   <si>
     <t>John</t>
@@ -90,63 +93,85 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.42578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.42578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
+      <c r="C4" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/code/output.xlsx
+++ b/code/output.xlsx
@@ -13,21 +13,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
-  <si>
-    <t>Output7</t>
-  </si>
-  <si>
-    <t>Output1</t>
-  </si>
-  <si>
-    <t>Output2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+  <si>
+    <t>Output_7</t>
+  </si>
+  <si>
+    <t>Output_1</t>
+  </si>
+  <si>
+    <t>Output_2</t>
   </si>
   <si>
     <t>John</t>
   </si>
   <si>
     <t>Josh</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>Viridian</t>
@@ -94,7 +97,8 @@
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.42578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.42578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -107,6 +111,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -118,32 +125,41 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>43</v>
       </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -151,16 +167,22 @@
       <c r="C5" t="n">
         <v>48</v>
       </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -168,10 +190,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/code/output.xlsx
+++ b/code/output.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Output_7</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Josh</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>Viridian</t>
@@ -125,41 +122,41 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="D3" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
+      <c r="D4" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -167,22 +164,22 @@
       <c r="C5" t="n">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
+      <c r="D5" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
+      <c r="D6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -190,13 +187,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
+      <c r="D7" t="n">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>

--- a/code/output.xlsx
+++ b/code/output.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Output_7</t>
   </si>
@@ -96,6 +96,7 @@
     <col min="2" max="2" width="9.42578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.42578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.42578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.42578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -111,6 +112,9 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -125,6 +129,9 @@
       <c r="D2" t="n">
         <v>6.0</v>
       </c>
+      <c r="E2">
+        <f>SUM(C2:C7)</f>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -139,6 +146,9 @@
       <c r="D3" t="n">
         <v>6.0</v>
       </c>
+      <c r="E3">
+        <f>SUM(C2:C7)</f>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -152,6 +162,9 @@
       </c>
       <c r="D4" t="n">
         <v>6.0</v>
+      </c>
+      <c r="E4">
+        <f>SUM(C2:C7)</f>
       </c>
     </row>
     <row r="5">
@@ -167,6 +180,9 @@
       <c r="D5" t="n">
         <v>6.0</v>
       </c>
+      <c r="E5">
+        <f>SUM(C2:C7)</f>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -181,6 +197,9 @@
       <c r="D6" t="n">
         <v>6.0</v>
       </c>
+      <c r="E6">
+        <f>SUM(C2:C7)</f>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -194,6 +213,9 @@
       </c>
       <c r="D7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="E7">
+        <f>SUM(C2:C7)</f>
       </c>
     </row>
   </sheetData>

--- a/code/output.xlsx
+++ b/code/output.xlsx
@@ -1,14 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2fee13dea56e37a/Documents/.Workspaces/NAEVYS2 Workspace/NAEVYS/code/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8B14C62CD6CFAE4B4BF114F6FCADE1220F410E8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{413FE8A4-FFB5-4776-8F06-85012E56D9F9}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" r:id="rId3" sheetId="1"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48,11 +68,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.00"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -77,200 +96,521 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false" autoPageBreaks="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.42578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.42578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.42578125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.42578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>6.0</v>
+      <c r="D2">
+        <v>6</v>
       </c>
       <c r="E2">
         <f>SUM(C2:C7)</f>
+        <v>116</v>
       </c>
       <c r="F2">
-        <f>C2+D2</f>
+        <f t="shared" ref="F2:F7" si="0">C2+D2</f>
+        <v>11</v>
       </c>
       <c r="G2">
-        <f>(C2/D2)+5*2</f>
+        <f t="shared" ref="G2:G7" si="1">(C2/D2)+5*2</f>
+        <v>10.833333333333334</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.0</v>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
       </c>
       <c r="E3">
         <f>SUM(C2:C7)</f>
+        <v>116</v>
       </c>
       <c r="F3">
-        <f>C3+D3</f>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="G3">
-        <f>(C3/D3)+5*2</f>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>43</v>
       </c>
-      <c r="D4" t="n">
-        <v>6.0</v>
+      <c r="D4">
+        <v>6</v>
       </c>
       <c r="E4">
         <f>SUM(C2:C7)</f>
+        <v>116</v>
       </c>
       <c r="F4">
-        <f>C4+D4</f>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="G4">
-        <f>(C4/D4)+5*2</f>
+        <f t="shared" si="1"/>
+        <v>17.166666666666668</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>48</v>
       </c>
-      <c r="D5" t="n">
-        <v>6.0</v>
+      <c r="D5">
+        <v>6</v>
       </c>
       <c r="E5">
         <f>SUM(C2:C7)</f>
+        <v>116</v>
       </c>
       <c r="F5">
-        <f>C5+D5</f>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="G5">
-        <f>(C5/D5)+5*2</f>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.0</v>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
       </c>
       <c r="E6">
         <f>SUM(C2:C7)</f>
+        <v>116</v>
       </c>
       <c r="F6">
-        <f>C6+D6</f>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="G6">
-        <f>(C6/D6)+5*2</f>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
-        <v>6.0</v>
+      <c r="D7">
+        <v>6</v>
       </c>
       <c r="E7">
         <f>SUM(C2:C7)</f>
+        <v>116</v>
       </c>
       <c r="F7">
-        <f>C7+D7</f>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="G7">
-        <f>(C7/D7)+5*2</f>
+        <f t="shared" si="1"/>
+        <v>11.333333333333334</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" useFirstPageNumber="false" blackAndWhite="false" orientation="portrait"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
 </worksheet>
 </file>